--- a/backend/uploads/inventory_forecast_1_uk_dec+2.xlsx
+++ b/backend/uploads/inventory_forecast_1_uk_dec+2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>sku</t>
   </si>
@@ -22,10 +22,7 @@
     <t>Product Name</t>
   </si>
   <si>
-    <t>SKU Type</t>
-  </si>
-  <si>
-    <t>Last Month Sales(Units)</t>
+    <t>Nov'25 Sold</t>
   </si>
   <si>
     <t>Sep'25 Sold</t>
@@ -58,6 +55,12 @@
     <t>Feb'26</t>
   </si>
   <si>
+    <t>Mar'26</t>
+  </si>
+  <si>
+    <t>Apr'26</t>
+  </si>
+  <si>
     <t>25-954C-QWS0</t>
   </si>
   <si>
@@ -100,7 +103,43 @@
     <t>Total</t>
   </si>
   <si>
-    <t>New</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Classic +Classic</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
+  </si>
+  <si>
+    <t>Classic + Wipes</t>
+  </si>
+  <si>
+    <t>Wipes + Menthol</t>
+  </si>
+  <si>
+    <t>Classic + Menthol</t>
+  </si>
+  <si>
+    <t>Classic+ Passion Fruit</t>
+  </si>
+  <si>
+    <t>Menthol</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Refill Pack</t>
+  </si>
+  <si>
+    <t>Intimate Wipes</t>
+  </si>
+  <si>
+    <t>Women</t>
   </si>
   <si>
     <t>-</t>
@@ -461,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,201 +549,231 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>182</v>
+      </c>
+      <c r="G2">
+        <v>921</v>
+      </c>
+      <c r="H2">
+        <v>26.31</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>921</v>
+      </c>
+      <c r="K2">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>34</v>
+      </c>
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>93</v>
+      </c>
+      <c r="G3">
+        <v>989</v>
+      </c>
+      <c r="H3">
+        <v>82.42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>989</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>361</v>
+      </c>
+      <c r="D4">
+        <v>394</v>
+      </c>
+      <c r="E4">
+        <v>461</v>
+      </c>
+      <c r="F4">
+        <v>1794</v>
+      </c>
+      <c r="G4">
+        <v>5108</v>
+      </c>
+      <c r="H4">
+        <v>14.15</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5108</v>
+      </c>
+      <c r="K4">
+        <v>357</v>
+      </c>
+      <c r="L4">
+        <v>357</v>
+      </c>
+      <c r="M4">
+        <v>322</v>
+      </c>
+      <c r="N4">
+        <v>361</v>
+      </c>
+      <c r="O4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>38</v>
-      </c>
-      <c r="F2">
-        <v>33</v>
-      </c>
-      <c r="G2">
-        <v>110</v>
-      </c>
-      <c r="H2">
-        <v>921</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>921</v>
-      </c>
-      <c r="L2">
-        <v>38</v>
-      </c>
-      <c r="M2">
-        <v>38</v>
-      </c>
-      <c r="N2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>57</v>
-      </c>
-      <c r="H3">
-        <v>989</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>989</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>20</v>
-      </c>
-      <c r="N3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>397</v>
-      </c>
-      <c r="F4">
-        <v>465</v>
-      </c>
-      <c r="G4">
-        <v>909</v>
-      </c>
-      <c r="H4">
-        <v>5108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>5108</v>
-      </c>
-      <c r="L4">
-        <v>311</v>
-      </c>
-      <c r="M4">
-        <v>314</v>
-      </c>
-      <c r="N4">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
       <c r="D5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <v>324</v>
+      </c>
+      <c r="H5">
+        <v>23.14</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>324</v>
+      </c>
+      <c r="K5">
         <v>13</v>
       </c>
-      <c r="G5">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>324</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>324</v>
-      </c>
       <c r="L5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5">
         <v>12</v>
       </c>
       <c r="N5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H6">
         <v>106</v>
       </c>
-      <c r="I6" t="s">
-        <v>29</v>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K6">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -713,39 +782,45 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>146</v>
+      </c>
+      <c r="H7">
+        <v>73</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>146</v>
+      </c>
+      <c r="K7">
         <v>3</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>146</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>146</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -754,338 +829,386 @@
         <v>3</v>
       </c>
       <c r="N7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>508</v>
+      </c>
+      <c r="H8">
+        <v>101.6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>508</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
         <v>12</v>
       </c>
-      <c r="G8">
-        <v>34</v>
-      </c>
-      <c r="H8">
-        <v>508</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>508</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
         <v>11</v>
       </c>
-      <c r="M8">
-        <v>12</v>
-      </c>
       <c r="N8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E9">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>358</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>358</v>
+      </c>
+      <c r="J9">
+        <v>358</v>
+      </c>
+      <c r="K9">
+        <v>77</v>
+      </c>
+      <c r="L9">
+        <v>77</v>
+      </c>
+      <c r="M9">
+        <v>70</v>
+      </c>
+      <c r="N9">
         <v>64</v>
       </c>
-      <c r="F9">
-        <v>82</v>
-      </c>
-      <c r="G9">
-        <v>125</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9">
-        <v>125</v>
-      </c>
-      <c r="K9">
-        <v>125</v>
-      </c>
-      <c r="L9">
-        <v>43</v>
-      </c>
-      <c r="M9">
-        <v>43</v>
-      </c>
-      <c r="N9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="G10">
-        <v>73</v>
+        <v>579</v>
       </c>
       <c r="H10">
+        <v>24.12</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>579</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>579</v>
+        <v>25</v>
       </c>
       <c r="L10">
         <v>25</v>
       </c>
       <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>369</v>
+      </c>
+      <c r="G11">
+        <v>909</v>
+      </c>
+      <c r="H11">
+        <v>12.28</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>909</v>
+      </c>
+      <c r="K11">
+        <v>74</v>
+      </c>
+      <c r="L11">
+        <v>73</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>74</v>
+      </c>
+      <c r="O11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="N10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>51</v>
-      </c>
-      <c r="F11">
-        <v>67</v>
-      </c>
-      <c r="G11">
-        <v>204</v>
-      </c>
-      <c r="H11">
-        <v>909</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>274</v>
+      </c>
+      <c r="G12">
+        <v>975</v>
+      </c>
+      <c r="H12">
+        <v>17.73</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>975</v>
+      </c>
+      <c r="K12">
+        <v>55</v>
+      </c>
+      <c r="L12">
+        <v>54</v>
+      </c>
+      <c r="M12">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>55</v>
+      </c>
+      <c r="O12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
         <v>29</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>909</v>
-      </c>
-      <c r="L11">
-        <v>70</v>
-      </c>
-      <c r="M11">
-        <v>70</v>
-      </c>
-      <c r="N11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>136</v>
+      </c>
+      <c r="G13">
+        <v>299</v>
+      </c>
+      <c r="H13">
+        <v>10.31</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>299</v>
+      </c>
+      <c r="K13">
+        <v>36</v>
+      </c>
+      <c r="L13">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>71</v>
-      </c>
-      <c r="F12">
-        <v>51</v>
-      </c>
-      <c r="G12">
-        <v>165</v>
-      </c>
-      <c r="H12">
-        <v>975</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
         <v>29</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>975</v>
-      </c>
-      <c r="L12">
-        <v>57</v>
-      </c>
-      <c r="M12">
-        <v>57</v>
-      </c>
-      <c r="N12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>44</v>
-      </c>
-      <c r="F13">
-        <v>49</v>
-      </c>
-      <c r="G13">
-        <v>51</v>
-      </c>
-      <c r="H13">
-        <v>299</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>299</v>
-      </c>
-      <c r="L13">
-        <v>26</v>
-      </c>
-      <c r="M13">
-        <v>17</v>
-      </c>
-      <c r="N13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
         <v>4</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>60</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>678</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="E15">
-        <v>750</v>
+        <v>811</v>
       </c>
       <c r="F15">
-        <v>821</v>
+        <v>3479</v>
       </c>
       <c r="G15">
-        <v>1795</v>
-      </c>
-      <c r="H15">
         <v>10924</v>
       </c>
-      <c r="I15" t="s">
-        <v>29</v>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="L15">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="M15">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="N15">
-        <v>552</v>
+        <v>678</v>
+      </c>
+      <c r="O15">
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/inventory_forecast_1_uk_dec+2.xlsx
+++ b/backend/uploads/inventory_forecast_1_uk_dec+2.xlsx
@@ -103,7 +103,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>0</t>
+    <t>nan</t>
   </si>
   <si>
     <t>Classic +Classic</t>
@@ -561,43 +561,43 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G2">
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>26.31</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J2">
-        <v>921</v>
+        <v>142</v>
       </c>
       <c r="K2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M2">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -608,43 +608,43 @@
         <v>30</v>
       </c>
       <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
       <c r="E3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G3">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>82.42</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J3">
-        <v>989</v>
+        <v>98</v>
       </c>
       <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="O3">
         <v>28</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>16</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -655,43 +655,43 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="D4">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E4">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="F4">
-        <v>1794</v>
+        <v>1663</v>
       </c>
       <c r="G4">
-        <v>5108</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>14.15</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1663</v>
       </c>
       <c r="J4">
-        <v>5108</v>
+        <v>1663</v>
       </c>
       <c r="K4">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L4">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M4">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="N4">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="O4">
-        <v>397</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -702,43 +702,43 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>13</v>
       </c>
       <c r="F5">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>23.14</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J5">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5">
         <v>12</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -752,25 +752,25 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -779,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -796,43 +796,43 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J7">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -843,43 +843,43 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>101.6</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J8">
-        <v>508</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>11</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -890,43 +890,43 @@
         <v>36</v>
       </c>
       <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>299</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>299</v>
+      </c>
+      <c r="J9">
+        <v>299</v>
+      </c>
+      <c r="K9">
         <v>64</v>
       </c>
-      <c r="D9">
-        <v>63</v>
-      </c>
-      <c r="E9">
-        <v>81</v>
-      </c>
-      <c r="F9">
-        <v>358</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>358</v>
-      </c>
-      <c r="J9">
-        <v>358</v>
-      </c>
-      <c r="K9">
-        <v>77</v>
-      </c>
       <c r="L9">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O9">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -937,43 +937,43 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G10">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>24.12</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J10">
-        <v>579</v>
+        <v>105</v>
       </c>
       <c r="K10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O10">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -984,40 +984,40 @@
         <v>38</v>
       </c>
       <c r="C11">
+        <v>82</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>401</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>401</v>
+      </c>
+      <c r="J11">
+        <v>401</v>
+      </c>
+      <c r="K11">
+        <v>83</v>
+      </c>
+      <c r="L11">
+        <v>82</v>
+      </c>
+      <c r="M11">
         <v>74</v>
       </c>
-      <c r="D11">
-        <v>51</v>
-      </c>
-      <c r="E11">
-        <v>67</v>
-      </c>
-      <c r="F11">
-        <v>369</v>
-      </c>
-      <c r="G11">
-        <v>909</v>
-      </c>
-      <c r="H11">
-        <v>12.28</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>909</v>
-      </c>
-      <c r="K11">
-        <v>74</v>
-      </c>
-      <c r="L11">
-        <v>73</v>
-      </c>
-      <c r="M11">
-        <v>66</v>
-      </c>
       <c r="N11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O11">
         <v>82</v>
@@ -1031,43 +1031,43 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G12">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>17.73</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J12">
-        <v>975</v>
+        <v>250</v>
       </c>
       <c r="K12">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L12">
         <v>54</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N12">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="O12">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1078,43 +1078,43 @@
         <v>40</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="G13">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>10.31</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="J13">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K13">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N13">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="O13">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1131,34 +1131,34 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
         <v>3</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -1172,19 +1172,19 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="D15">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="E15">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F15">
-        <v>3479</v>
+        <v>3400</v>
       </c>
       <c r="G15">
-        <v>10924</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>42</v>
@@ -1196,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="L15">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M15">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="N15">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="O15">
-        <v>748</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
